--- a/outputs/CHENNAI4.xlsx
+++ b/outputs/CHENNAI4.xlsx
@@ -424,9 +424,9 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Motivations, Information Processing Style, Attitude Towards Risk
-Why: The subgoal is to find the list of issues, but the current page appears to be focused on repository files and documentation, not issues. ABI might not consider this page as a step toward finding the list of issues because the issues tab is not prominent or obvious here. ABI's motivation to find the issues list and their comprehensive information processing style would lead them to look for a more direct and clear path to the issues, such as an "Issues" tab or link. Additionally, ABI's attitude towards risk means they are likely to avoid spending time on pages that do not seem directly relevant to their goal.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly shows a repository with various files and folders, which is a common place to look for issues in a project. ABI, being motivated to accomplish their task, would likely consider finding the list of issues as a necessary step. Additionally, ABI's comprehensive information processing style would lead them to explore the repository to gather all relevant information, including issues.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "Issues" tab is clearly labeled in the sidebar, and the page shows a list of issues when this tab is selected. The action of hovering over "Issues" and clicking on "List" is intuitive and straightforward. Given ABI's comprehensive information processing style, they will likely read the available options and understand that clicking "Issues" will lead them to the list of issues. This aligns with ABI’s learning style of following clear, step-by-step processes.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Issues" tab is clearly visible on the left sidebar, and the list of issues is prominently displayed on the page. ABI, motivated to find an issue to solve, would recognize that clicking on "Issues" and then "List" is a logical step. The page layout is straightforward, and the action required is clear, aligning with ABI's comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After taking the action of clicking on "Issues" and landing on this page, ABI will see a clear list of issues. This page explicitly lists various issues, which directly aligns with ABI's subgoal of finding a list of issues to solve. The clear presentation and organization of issues will make it evident to ABI that they have made progress toward their goal. This matches ABI's motivations to accomplish tasks efficiently and their comprehensive information processing style, as the page provides a detailed list of issues along with relevant status and details.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Issues" and "List," ABI will land on a page that clearly displays a list of issues. This page provides a comprehensive view of the issues, including their titles, statuses, and other relevant details. This aligns with ABI's motivation to find an issue to solve and their comprehensive information processing style. The clear presentation of information will help ABI understand that they are making progress toward their goal and provide all the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The subgoal of finding the most appropriate issue to solve aligns well with landing on the issues list page. ABI will recognize that reviewing the list of issues is a necessary step in identifying which issue to solve. The page provides a comprehensive list of issues, including titles, status (open/closed), and other relevant details. This presentation supports ABI's motivation to efficiently find a task to accomplish and their comprehensive information processing style to gather all necessary information before making a decision.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: ABI is motivated to find an issue to solve, and identifying the most appropriate issue is a logical step in this process. The page provides a list of issues with relevant details, which aligns with ABI's comprehensive information processing style. ABI would recognize that evaluating the issues to find the most suitable one is necessary to achieve their overall goal.</t>
         </is>
       </c>
     </row>
@@ -461,17 +461,17 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The page provides a clear and organized list of issues, complete with titles, status (open/closed), and other relevant details. This layout makes it straightforward for ABI to read through the issues and determine which one might be appropriate to solve. Given ABI’s comprehensive information processing style, they will comfortably read through the list to gather all necessary information. Additionally, ABI's motivation to efficiently accomplish tasks will be supported by the clear presentation and accessibility of the issue details on this page.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists various issues with their titles, statuses, and other relevant details. ABI, motivated to find an appropriate issue to solve, would understand that reading through the list is a necessary step. The layout is straightforward and provides the information needed to evaluate each issue, aligning with ABI's comprehensive information processing style. This makes it clear for ABI to know what to do at this step.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy, Motivations
-Why: While ABI will see a list of issues, the information provided might not be comprehensive enough for ABI to determine the appropriateness of an issue to solve. The titles and statuses are visible, but ABI may require more detailed descriptions, context, and criteria to assess which issue is most appropriate. Given ABI's comprehensive information processing style, they might feel the need for additional information that is not immediately visible on this list page. ABI's lower computer self-efficacy might lead them to doubt whether they have enough information to proceed confidently. Additionally, without clear indicators of complexity or priority, ABI's motivation to accomplish tasks efficiently might not be sufficiently supported.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a clear and detailed list of issues, including their titles, statuses, and other relevant information. ABI, motivated to find an appropriate issue to solve, will recognize that reading through the issues is the correct action. The comprehensive information presented aligns with ABI's information processing style, allowing them to understand that they are making progress toward their goal and providing all the necessary details to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The page clearly lists the issues with identifiable numbers and descriptions. ABI can see issue #136 and understand that clicking on it will provide more detailed information about that specific issue. This step aligns with ABI's comprehensive information processing style, as they will want to gather more detailed information about the issue before deciding if it is appropriate to solve. Additionally, ABI's learning style, which favors step-by-step processes, will support their decision to click on the issue for more details.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists the issues with their respective numbers, titles, and statuses. ABI, motivated to find an appropriate issue to solve, would understand that clicking on an issue number (such as #136) is a logical step to get more detailed information about that specific issue. The layout and presentation of the issues are straightforward, making it clear for ABI to know what to do at this step. This aligns with ABI's comprehensive information processing style, as they would want to gather detailed information about the issue before deciding to solve it.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on issue #136, ABI will land on a detailed page that provides comprehensive information about the issue, including the description, specific tasks to be done, related files, and activity history. This aligns well with ABI's information processing style, which prefers to gather extensive details before making decisions. ABI will see that they are making progress toward their goal of finding an appropriate issue to solve, as the detailed information will help them assess whether this issue is suitable. The clarity and comprehensiveness of the information provided will support ABI's motivation to accomplish their task efficiently.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on issue #136, ABI lands on a detailed page that provides comprehensive information about the issue, including the description, steps to reproduce, and potential solutions. This detailed view aligns with ABI's motivation to find an appropriate issue to solve and their comprehensive information processing style. The clear and detailed information will help ABI understand that they are making progress toward their goal and provide all the necessary details to proceed with solving the issue.</t>
         </is>
       </c>
     </row>

--- a/outputs/CHENNAI4.xlsx
+++ b/outputs/CHENNAI4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with files and directories, which is not directly related to finding a list of issues. ABI might not immediately think of this as a step toward finding issues because the page does not prominently feature or mention issues. ABI's motivation to find issues and her comprehensive information processing style would lead her to look for a more relevant section or link explicitly labeled for issues. Additionally, ABI's low computer self-efficacy might make her hesitant to explore unrelated sections without clear guidance.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 3. Attitude Towards Risk, 4. Computer Self-Efficacy
+Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct link to a list of issues. ABI, who prefers clear and direct instructions and is risk-averse, would not likely think to look here for a list of issues. The page does not provide comprehensive information or guidance on finding issues, which would be necessary for ABI to feel confident in taking this step.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly shows a list of issues with the "Issues" tab highlighted on the left sidebar. This aligns with ABI's motivation to find issues to solve. The page layout is straightforward, and the "Issues" tab is prominently displayed, making it easy for ABI to understand that clicking on "Issues" will lead to the list of issues. This clear labeling and organization support ABI's comprehensive information processing style, as it provides a direct path to the desired information.</t>
+Why: The page clearly shows a list of issues under the "Issues" tab, which aligns with ABI's goal of finding an issue to solve. The "Issues" tab is prominently displayed in the left-hand navigation menu, and the list of issues is visible on the page. This provides ABI with the necessary information to understand that clicking on "Issues" and then "List" will lead to the desired outcome. The page layout is straightforward and does not overwhelm with too much information, making it easier for ABI to process and take the action confidently.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Issues" and landing on this page, ABI will see a clear list of issues, which directly aligns with her goal of finding an issue to solve. The page is well-organized, with issues listed along with their status, titles, and other relevant details. This provides ABI with all the necessary information to understand that she is making progress toward her goal. The clear presentation of information supports ABI's comprehensive information processing style, allowing her to gather all the details she needs to proceed.</t>
+Why: After clicking on "Issues" and landing on this page, ABI will see a clear list of issues, which directly aligns with the subgoal of finding a list of issues. The page is well-organized, showing open, closed, and all issues, which helps ABI understand that they are in the right place and making progress toward their goal. The information is presented in a straightforward manner, making it easy for ABI to process and feel confident that they have done the right thing.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page displays a list of issues, which is a necessary step toward finding the most appropriate issue to solve. ABI's motivation to find an issue to work on and her comprehensive information processing style would lead her to review the list of issues to identify the most suitable one. The page provides relevant details such as issue titles, statuses, and dates, which will help ABI in making an informed decision. Therefore, ABI would consider this a step toward achieving her overall use case.</t>
+Why: The page clearly displays a list of issues, which is a logical next step for ABI in finding an appropriate issue to solve. The issues are categorized and listed with relevant details, making it easier for ABI to process the information comprehensively. This aligns with ABI's motivation to find an issue to solve and their information processing style, which involves gathering and understanding all necessary information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists issues with relevant details such as titles, statuses, and dates, which are essential for ABI to determine the most appropriate issue to solve. ABI's motivation to find an issue and her comprehensive information processing style will guide her to read through the list to gather the necessary information. The layout and organization of the page make it straightforward for ABI to understand what to do at this step, ensuring she can effectively read through the issues to find a suitable one.</t>
+Why: The page provides a clear list of issues with titles and some details, which aligns with ABI's goal of finding an appropriate issue to solve. The layout is straightforward, and the issues are categorized, making it easier for ABI to read through and identify relevant issues. This aligns with ABI's comprehensive information processing style, as they can gather and understand the necessary information by reading through the list. The page is not overwhelming and provides a clear path for ABI to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides a list of issues, it may not give ABI all the information she needs to determine the most appropriate issue to solve. The titles and statuses of the issues are visible, but ABI might need more detailed descriptions or context to make an informed decision. Given ABI's comprehensive information processing style, she would prefer to have all relevant details readily available. Additionally, ABI's low computer self-efficacy might make her hesitant to click on each issue to gather more information, as she might not feel confident navigating through multiple pages. Therefore, she might not feel certain that she is making progress toward her goal with the information provided on this page alone.</t>
+Why: While the page provides a list of issues, it does not offer detailed information about each issue directly on the list page. ABI, who prefers comprehensive information and has low confidence in unfamiliar tasks, might not feel certain that they have found the most appropriate issue to solve just by reading the titles and brief descriptions. ABI would likely need to click on each issue to read more details, which might be overwhelming and time-consuming. The lack of detailed information on the main list page could make ABI unsure if they are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists the issues with their respective numbers, titles, and statuses. ABI's motivation to find an appropriate issue to solve and her comprehensive information processing style will guide her to click on an issue to gather more details. The issue numbers are prominently displayed, making it easy for ABI to identify and click on issue #136. The page layout and organization provide a clear path for ABI to follow, ensuring she knows what to do at this step.</t>
+Why: The page clearly lists the issues with their respective numbers, titles, and brief descriptions. ABI, who is motivated to find an appropriate issue to solve, will understand that clicking on an issue number (such as #136) will provide more detailed information about that specific issue. The layout is straightforward, and the action of clicking on an issue to get more details aligns with ABI's comprehensive information processing style. This step is logical and clear, making it easy for ABI to know what to do next.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on issue #136, ABI will land on a detailed page that provides comprehensive information about the issue, including the title, description, steps to reproduce, and activity history. This detailed view aligns with ABI's motivation to find an appropriate issue to solve and her comprehensive information processing style. The page layout is clear and organized, making it easy for ABI to understand that she is making progress toward her goal and has all the information she needs to evaluate the issue.</t>
+Why: After clicking on issue #136, ABI will land on a page that provides detailed information about the issue, including the steps needed to resolve it and relevant files. This detailed view aligns with ABI's comprehensive information processing style, allowing them to gather all necessary information to determine if this issue is appropriate for them to solve. The clear presentation of the issue details and the logical structure of the page will help ABI understand that they are making progress toward their goal. The information provided is sufficient for ABI to feel confident that they have done the right thing and are on the right track.</t>
         </is>
       </c>
     </row>

--- a/outputs/CHENNAI4.xlsx
+++ b/outputs/CHENNAI4.xlsx
@@ -424,9 +424,9 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 3. Attitude Towards Risk, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct link to a list of issues. ABI, who prefers clear and direct instructions and is risk-averse, would not likely think to look here for a list of issues. The page does not provide comprehensive information or guidance on finding issues, which would be necessary for ABI to feel confident in taking this step.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page contains a sidebar with a clear "Issues" tab, which is a common place to find a list of issues in repositories. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that clicking on the "Issues" tab is a necessary step toward finding a list of issues to solve.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly shows a list of issues under the "Issues" tab, which aligns with ABI's goal of finding an issue to solve. The "Issues" tab is prominently displayed in the left-hand navigation menu, and the list of issues is visible on the page. This provides ABI with the necessary information to understand that clicking on "Issues" and then "List" will lead to the desired outcome. The page layout is straightforward and does not overwhelm with too much information, making it easier for ABI to process and take the action confidently.</t>
+Why: The "Issues" tab is clearly visible in the sidebar, which aligns with Abi's motivation to find a list of issues. The page layout is straightforward, and the "Issues" tab is a standard feature in repositories, making it easy for Abi to recognize and understand what to do next. This aligns with her comprehensive information processing style, as she can see that clicking on the "Issues" tab is a logical step toward achieving her goal.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Issues" and landing on this page, ABI will see a clear list of issues, which directly aligns with the subgoal of finding a list of issues. The page is well-organized, showing open, closed, and all issues, which helps ABI understand that they are in the right place and making progress toward their goal. The information is presented in a straightforward manner, making it easy for ABI to process and feel confident that they have done the right thing.</t>
+Why: After clicking on the "Issues" tab, Abi will land on a page that clearly lists the issues, which is exactly what she is looking for. The page is well-organized, showing open and closed issues, along with relevant details such as titles, labels, and dates. This provides Abi with the necessary information to understand that she is making progress toward her goal of finding an issue to solve. The clear presentation aligns with her comprehensive information processing style, ensuring she has all the information she needs to proceed.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly displays a list of issues, which is a logical next step for ABI in finding an appropriate issue to solve. The issues are categorized and listed with relevant details, making it easier for ABI to process the information comprehensively. This aligns with ABI's motivation to find an issue to solve and their information processing style, which involves gathering and understanding all necessary information before proceeding.</t>
+Why: The page clearly lists various issues, which is a logical next step for Abi to find the most appropriate issue to solve. Given her motivation to accomplish tasks and her comprehensive information processing style, she would recognize that reviewing the list of issues is essential to identify one that is suitable for a newcomer. The page layout supports this by providing detailed information about each issue, such as titles, labels, and dates, which helps Abi in making an informed decision.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear list of issues with titles and some details, which aligns with ABI's goal of finding an appropriate issue to solve. The layout is straightforward, and the issues are categorized, making it easier for ABI to read through and identify relevant issues. This aligns with ABI's comprehensive information processing style, as they can gather and understand the necessary information by reading through the list. The page is not overwhelming and provides a clear path for ABI to take this action confidently.</t>
+Why: The page provides a clear list of issues with relevant details such as titles, labels, and dates, which are essential for Abi to determine the appropriateness of each issue. Given her motivation to find an issue to solve and her comprehensive information processing style, Abi will know that reading through the issues is the next logical step. The page layout supports this action by presenting the information in an organized and accessible manner, making it easy for Abi to understand what to do and proceed with her task.</t>
         </is>
       </c>
     </row>
@@ -471,25 +471,25 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides a list of issues, it does not offer detailed information about each issue directly on the list page. ABI, who prefers comprehensive information and has low confidence in unfamiliar tasks, might not feel certain that they have found the most appropriate issue to solve just by reading the titles and brief descriptions. ABI would likely need to click on each issue to read more details, which might be overwhelming and time-consuming. The lack of detailed information on the main list page could make ABI unsure if they are making progress toward their goal.</t>
+Why: While the page lists various issues, it does not provide explicit indicators or labels that identify which issues are appropriate for newcomers. Abi, with her comprehensive information processing style, might find it challenging to determine which issues are suitable without additional guidance or filtering options. Additionally, her low computer self-efficacy might make her uncertain about whether she has correctly identified an appropriate issue, leading to potential confusion and hesitation. Therefore, she might not feel confident that she is making progress toward her goal or that she has all the information she needs.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists the issues with their respective numbers, titles, and brief descriptions. ABI, who is motivated to find an appropriate issue to solve, will understand that clicking on an issue number (such as #136) will provide more detailed information about that specific issue. The layout is straightforward, and the action of clicking on an issue to get more details aligns with ABI's comprehensive information processing style. This step is logical and clear, making it easy for ABI to know what to do next.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide specific guidance or indicators that clicking on issue #136 is the correct action to take. Abi, with her low computer self-efficacy, might be hesitant to click on an issue without clear instructions or confirmation that it is the right step. Additionally, her preference for process-oriented learning means she would benefit from more explicit instructions or a tutorial guiding her through the process. Without this, she might struggle to confidently take the action.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on issue #136, ABI will land on a page that provides detailed information about the issue, including the steps needed to resolve it and relevant files. This detailed view aligns with ABI's comprehensive information processing style, allowing them to gather all necessary information to determine if this issue is appropriate for them to solve. The clear presentation of the issue details and the logical structure of the page will help ABI understand that they are making progress toward their goal. The information provided is sufficient for ABI to feel confident that they have done the right thing and are on the right track.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page provides detailed information about the issue, it does not explicitly indicate that this issue is appropriate for a newcomer. Abi, with her comprehensive information processing style, might find it challenging to determine if this issue is suitable without additional context or labels indicating its difficulty level. Additionally, her low computer self-efficacy might make her uncertain about whether she has chosen the right issue, leading to potential confusion and hesitation. Therefore, she might not feel confident that she is making progress toward her goal or that she has all the information she needs.</t>
         </is>
       </c>
     </row>
